--- a/data/xlsx/data.05.xlsx
+++ b/data/xlsx/data.05.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="352">
   <si>
     <t>TIME</t>
   </si>
@@ -1082,6 +1082,9 @@
   <si>
     <t>2021-01-11 11:15:00</t>
   </si>
+  <si>
+    <t>2021-01-12 11:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -6003,6 +6006,20 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10888,6 +10905,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -15773,6 +15804,20 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -20658,6 +20703,20 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -25543,6 +25602,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -30428,6 +30501,20 @@
         <v>8.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -35313,6 +35400,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -40198,6 +40299,20 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -45083,6 +45198,20 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -49968,6 +50097,20 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -54853,6 +54996,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -59738,6 +59895,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -64623,6 +64794,20 @@
         <v>13.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -69508,6 +69693,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -74393,6 +74592,20 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -79278,6 +79491,20 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -84163,6 +84390,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/xlsx/data.05.xlsx
+++ b/data/xlsx/data.05.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="353">
   <si>
     <t>TIME</t>
   </si>
@@ -1085,6 +1085,9 @@
   <si>
     <t>2021-01-12 11:00:00</t>
   </si>
+  <si>
+    <t>2021-01-13 11:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -6020,6 +6023,20 @@
         <v>8.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10919,6 +10936,20 @@
         <v>8.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -15818,6 +15849,20 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -20717,6 +20762,20 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -25616,6 +25675,20 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -30515,6 +30588,20 @@
         <v>8.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -35414,6 +35501,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -40313,6 +40414,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -45212,6 +45327,20 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -50111,6 +50240,20 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -55010,6 +55153,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -59909,6 +60066,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -64808,6 +64979,20 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -69707,6 +69892,20 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -74606,6 +74805,20 @@
         <v>8.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -79505,6 +79718,20 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -84404,6 +84631,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
